--- a/resources/LoginTestDataOrangeHRM.xlsx
+++ b/resources/LoginTestDataOrangeHRM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D532150F-7B46-4869-9199-ECAB07BCD3D5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{02C7F40B-3219-41E8-B6C5-EE57D8D7D4FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15525" windowHeight="11820" xr2:uid="{D6B1EF5C-2101-4EE0-9A8A-C4402BD80282}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15555" windowHeight="11820" xr2:uid="{D6B1EF5C-2101-4EE0-9A8A-C4402BD80282}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDAC2C0-212D-40AE-B4E2-017938C1CFE0}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
